--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing Projects\BStackDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA55DB0D-3839-45CE-AD00-449411BC315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198BAF38-88E4-4064-88AE-1BD56302152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA6B6CC-FB9C-4A43-B7BB-9AAC39065F4B}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="G9" workbookViewId="0">
-      <selection sqref="A1:J14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFAF8FD-F288-41F3-BD21-A36CB6DA844C}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2670,7 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6F9209-BFD9-495D-B8BA-380684FF0811}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3099,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE800E5-E2C3-4CF6-AE7A-9B860C6DD07B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="G6" workbookViewId="0">
-      <selection sqref="A1:J11"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
